--- a/documentation/figures/tables.xlsx
+++ b/documentation/figures/tables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A18D325-AC7A-4E09-99C1-D7E8298CC185}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC94BD07-32B0-468E-A011-55228963AF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1824" yWindow="1176" windowWidth="22824" windowHeight="8328" tabRatio="748" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AccountTypes" sheetId="15" r:id="rId1"/>
@@ -14,15 +14,16 @@
     <sheet name="Installations" sheetId="2" r:id="rId4"/>
     <sheet name="Installations_db" sheetId="5" r:id="rId5"/>
     <sheet name="Compliance" sheetId="3" r:id="rId6"/>
-    <sheet name="Compliance_db" sheetId="7" r:id="rId7"/>
-    <sheet name="Transactions" sheetId="4" r:id="rId8"/>
-    <sheet name="Transaction_db" sheetId="12" r:id="rId9"/>
-    <sheet name="Holder" sheetId="9" r:id="rId10"/>
-    <sheet name="Holder_db" sheetId="8" r:id="rId11"/>
-    <sheet name="Surrender" sheetId="11" r:id="rId12"/>
-    <sheet name="Surrender_db" sheetId="10" r:id="rId13"/>
-    <sheet name="Project" sheetId="14" r:id="rId14"/>
-    <sheet name="Project_db" sheetId="13" r:id="rId15"/>
+    <sheet name="EsdCompliance" sheetId="16" r:id="rId7"/>
+    <sheet name="Compliance_db" sheetId="7" r:id="rId8"/>
+    <sheet name="Transactions" sheetId="4" r:id="rId9"/>
+    <sheet name="Transaction_db" sheetId="12" r:id="rId10"/>
+    <sheet name="Holder" sheetId="9" r:id="rId11"/>
+    <sheet name="Holder_db" sheetId="8" r:id="rId12"/>
+    <sheet name="Surrender" sheetId="11" r:id="rId13"/>
+    <sheet name="Surrender_db" sheetId="10" r:id="rId14"/>
+    <sheet name="Project" sheetId="14" r:id="rId15"/>
+    <sheet name="Project_db" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="320">
   <si>
     <t>accountName</t>
   </si>
@@ -952,13 +953,66 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>memberstate_id</t>
+  </si>
+  <si>
+    <t>Unique ID of the related account</t>
+  </si>
+  <si>
+    <t>Id for the member state</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>Allowances balance for the respective year</t>
+  </si>
+  <si>
+    <t>Number of allowances received</t>
+  </si>
+  <si>
+    <t>allocated</t>
+  </si>
+  <si>
+    <r>
+      <t>surrenderedCredits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Number of surrendered allowances</t>
+  </si>
+  <si>
+    <t>surrenderedAea</t>
+  </si>
+  <si>
+    <t>Number of surrendered AEA allowances</t>
+  </si>
+  <si>
+    <t>Number of surrendered offsets</t>
+  </si>
+  <si>
+    <t>Compliance status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,6 +1032,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -1021,30 +1081,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1327,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0796620-E662-4FCE-9F29-B2E803B3C10A}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection sqref="A1:B54"/>
     </sheetView>
   </sheetViews>
@@ -1346,16 +1401,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1363,7 +1418,7 @@
       <c r="A4" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1371,21 +1426,21 @@
       <c r="A5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1393,7 +1448,7 @@
       <c r="A8" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1401,21 +1456,21 @@
       <c r="A9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s">
         <v>214</v>
       </c>
     </row>
@@ -1423,7 +1478,7 @@
       <c r="A12" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1431,7 +1486,7 @@
       <c r="A13" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" t="s">
         <v>218</v>
       </c>
     </row>
@@ -1439,7 +1494,7 @@
       <c r="A14" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" t="s">
         <v>220</v>
       </c>
     </row>
@@ -1447,7 +1502,7 @@
       <c r="A15" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" t="s">
         <v>222</v>
       </c>
     </row>
@@ -1455,7 +1510,7 @@
       <c r="A16" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" t="s">
         <v>224</v>
       </c>
     </row>
@@ -1463,7 +1518,7 @@
       <c r="A17" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" t="s">
         <v>226</v>
       </c>
     </row>
@@ -1471,7 +1526,7 @@
       <c r="A18" t="s">
         <v>229</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" t="s">
         <v>228</v>
       </c>
     </row>
@@ -1479,7 +1534,7 @@
       <c r="A19" t="s">
         <v>231</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" t="s">
         <v>230</v>
       </c>
     </row>
@@ -1487,7 +1542,7 @@
       <c r="A20" t="s">
         <v>233</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" t="s">
         <v>232</v>
       </c>
     </row>
@@ -1495,7 +1550,7 @@
       <c r="A21" t="s">
         <v>235</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" t="s">
         <v>234</v>
       </c>
     </row>
@@ -1503,7 +1558,7 @@
       <c r="A22" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -1511,7 +1566,7 @@
       <c r="A23" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" t="s">
         <v>238</v>
       </c>
     </row>
@@ -1519,7 +1574,7 @@
       <c r="A24" t="s">
         <v>241</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" t="s">
         <v>240</v>
       </c>
     </row>
@@ -1527,7 +1582,7 @@
       <c r="A25" t="s">
         <v>243</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" t="s">
         <v>242</v>
       </c>
     </row>
@@ -1535,7 +1590,7 @@
       <c r="A26" t="s">
         <v>245</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1543,7 +1598,7 @@
       <c r="A27" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" t="s">
         <v>246</v>
       </c>
     </row>
@@ -1551,7 +1606,7 @@
       <c r="A28" t="s">
         <v>249</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" t="s">
         <v>248</v>
       </c>
     </row>
@@ -1559,7 +1614,7 @@
       <c r="A29" t="s">
         <v>251</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" t="s">
         <v>250</v>
       </c>
     </row>
@@ -1567,7 +1622,7 @@
       <c r="A30" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" t="s">
         <v>252</v>
       </c>
     </row>
@@ -1575,7 +1630,7 @@
       <c r="A31" t="s">
         <v>255</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" t="s">
         <v>254</v>
       </c>
     </row>
@@ -1583,7 +1638,7 @@
       <c r="A32" t="s">
         <v>257</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" t="s">
         <v>256</v>
       </c>
     </row>
@@ -1591,7 +1646,7 @@
       <c r="A33" t="s">
         <v>259</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" t="s">
         <v>258</v>
       </c>
     </row>
@@ -1599,7 +1654,7 @@
       <c r="A34" t="s">
         <v>261</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" t="s">
         <v>260</v>
       </c>
     </row>
@@ -1607,7 +1662,7 @@
       <c r="A35" t="s">
         <v>263</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" t="s">
         <v>262</v>
       </c>
     </row>
@@ -1615,7 +1670,7 @@
       <c r="A36" t="s">
         <v>265</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" t="s">
         <v>264</v>
       </c>
     </row>
@@ -1623,7 +1678,7 @@
       <c r="A37" t="s">
         <v>267</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" t="s">
         <v>266</v>
       </c>
     </row>
@@ -1631,7 +1686,7 @@
       <c r="A38" t="s">
         <v>269</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" t="s">
         <v>268</v>
       </c>
     </row>
@@ -1639,7 +1694,7 @@
       <c r="A39" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" t="s">
         <v>270</v>
       </c>
     </row>
@@ -1647,7 +1702,7 @@
       <c r="A40" t="s">
         <v>273</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" t="s">
         <v>272</v>
       </c>
     </row>
@@ -1655,7 +1710,7 @@
       <c r="A41" t="s">
         <v>275</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" t="s">
         <v>274</v>
       </c>
     </row>
@@ -1663,7 +1718,7 @@
       <c r="A42" t="s">
         <v>277</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" t="s">
         <v>276</v>
       </c>
     </row>
@@ -1671,7 +1726,7 @@
       <c r="A43" t="s">
         <v>279</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" t="s">
         <v>278</v>
       </c>
     </row>
@@ -1679,7 +1734,7 @@
       <c r="A44" t="s">
         <v>281</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" t="s">
         <v>280</v>
       </c>
     </row>
@@ -1687,7 +1742,7 @@
       <c r="A45" t="s">
         <v>283</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" t="s">
         <v>282</v>
       </c>
     </row>
@@ -1695,7 +1750,7 @@
       <c r="A46" t="s">
         <v>285</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" t="s">
         <v>284</v>
       </c>
     </row>
@@ -1703,7 +1758,7 @@
       <c r="A47" t="s">
         <v>287</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" t="s">
         <v>286</v>
       </c>
     </row>
@@ -1711,7 +1766,7 @@
       <c r="A48" t="s">
         <v>289</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" t="s">
         <v>288</v>
       </c>
     </row>
@@ -1719,7 +1774,7 @@
       <c r="A49" t="s">
         <v>291</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" t="s">
         <v>290</v>
       </c>
     </row>
@@ -1727,7 +1782,7 @@
       <c r="A50" t="s">
         <v>293</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" t="s">
         <v>292</v>
       </c>
     </row>
@@ -1735,7 +1790,7 @@
       <c r="A51" t="s">
         <v>295</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" t="s">
         <v>294</v>
       </c>
     </row>
@@ -1743,7 +1798,7 @@
       <c r="A52" t="s">
         <v>297</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" t="s">
         <v>296</v>
       </c>
     </row>
@@ -1751,7 +1806,7 @@
       <c r="A53" t="s">
         <v>299</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" t="s">
         <v>298</v>
       </c>
     </row>
@@ -1759,7 +1814,7 @@
       <c r="A54" t="s">
         <v>301</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" t="s">
         <v>300</v>
       </c>
     </row>
@@ -1774,6 +1829,406 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BB8222-1750-4092-93CD-9CC788798FB1}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE406A0-FC2F-43FD-A37A-F4B9DD322E30}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -1888,7 +2343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA185A7B-1503-4F05-AC47-953CF9366890}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -2183,7 +2638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B9B389-A574-4389-9D08-C8FCDDDF8571}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -2308,7 +2763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F939B7A9-F7F4-49EE-9CF9-D0729E6262F9}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -2606,7 +3061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995B37D8-ECDF-409C-B4DC-B8E4FC7F5053}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2666,7 +3121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419CA5C2-5B77-4536-81A8-5313F914EF4B}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -2823,7 +3278,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -2847,10 +3302,10 @@
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2870,7 +3325,7 @@
       <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>115</v>
       </c>
       <c r="I2" t="s">
@@ -2890,7 +3345,6 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4"/>
       <c r="I3" t="s">
         <v>0</v>
       </c>
@@ -2908,7 +3362,7 @@
       <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>143</v>
       </c>
       <c r="I4" t="s">
@@ -2925,10 +3379,10 @@
       <c r="B5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" t="s">
         <v>144</v>
       </c>
       <c r="I5" t="s">
@@ -2945,10 +3399,10 @@
       <c r="B6" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" t="s">
         <v>145</v>
       </c>
       <c r="I6" t="s">
@@ -2965,10 +3419,9 @@
       <c r="B7" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="4"/>
       <c r="I7" t="s">
         <v>4</v>
       </c>
@@ -2983,10 +3436,9 @@
       <c r="B8" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="4"/>
       <c r="I8" t="s">
         <v>5</v>
       </c>
@@ -3001,10 +3453,9 @@
       <c r="B9" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4"/>
       <c r="I9" t="s">
         <v>6</v>
       </c>
@@ -3019,10 +3470,9 @@
       <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="4"/>
       <c r="I10" t="s">
         <v>7</v>
       </c>
@@ -3037,10 +3487,9 @@
       <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="4"/>
       <c r="I11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3055,10 +3504,9 @@
       <c r="B12" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -3067,70 +3515,21 @@
       <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3614,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10FDC05-3D44-4C00-B83D-6FC2F95BE332}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="A1:C30"/>
@@ -3751,40 +4150,37 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -3975,18 +4371,6 @@
       <c r="C30" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5075,177 +5459,174 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="4"/>
-    <col min="3" max="3" width="16.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="4" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="4"/>
-    <col min="7" max="7" width="44.88671875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="44.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5255,6 +5636,143 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80989343-5C2C-4363-B1F3-B2DE1F3C6C86}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5080EB39-6825-48B3-8E35-2894DCC9C3AC}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -5759,7 +6277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D989EA6-A72F-4258-ADD5-B5A4111BC886}">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -5769,160 +6287,158 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" style="4" customWidth="1"/>
-    <col min="4" max="7" width="11.5546875" style="4"/>
-    <col min="8" max="8" width="30.5546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="39.5546875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="9" max="9" width="39.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5930,404 +6446,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BB8222-1750-4092-93CD-9CC788798FB1}">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>